--- a/my_code/excel files/normalized_factors .xlsx
+++ b/my_code/excel files/normalized_factors .xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Ari</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -476,6 +481,9 @@
       <c r="E2" t="n">
         <v>0.04406525979097492</v>
       </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -493,6 +501,9 @@
       <c r="E3" t="n">
         <v>0.3188557366774597</v>
       </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -510,6 +521,9 @@
       <c r="E4" t="n">
         <v>0.7810848145847267</v>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -527,6 +541,9 @@
       <c r="E5" t="n">
         <v>0.3931028838464521</v>
       </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -544,6 +561,9 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -561,6 +581,9 @@
       <c r="E7" t="n">
         <v>0.796274031833535</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -578,6 +601,9 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -595,6 +621,9 @@
       <c r="E9" t="n">
         <v>0.179893195710762</v>
       </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -612,6 +641,9 @@
       <c r="E10" t="n">
         <v>0.3184697709675059</v>
       </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -629,6 +661,9 @@
       <c r="E11" t="n">
         <v>0.1655111059478895</v>
       </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -646,6 +681,9 @@
       <c r="E12" t="n">
         <v>0.7133755312020277</v>
       </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -663,6 +701,9 @@
       <c r="E13" t="n">
         <v>0.6615573542204091</v>
       </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -680,6 +721,9 @@
       <c r="E14" t="n">
         <v>0.4150025174500228</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -697,6 +741,9 @@
       <c r="E15" t="n">
         <v>0.7478507673717765</v>
       </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -714,6 +761,9 @@
       <c r="E16" t="n">
         <v>0.2366974342052258</v>
       </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -731,6 +781,9 @@
       <c r="E17" t="n">
         <v>0.2357132305639366</v>
       </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -748,6 +801,9 @@
       <c r="E18" t="n">
         <v>0.4107213647942294</v>
       </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -765,6 +821,9 @@
       <c r="E19" t="n">
         <v>0.4980215566976893</v>
       </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -782,6 +841,9 @@
       <c r="E20" t="n">
         <v>0.5264781000985728</v>
       </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -799,6 +861,9 @@
       <c r="E21" t="n">
         <v>0.5840575104016986</v>
       </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -816,6 +881,9 @@
       <c r="E22" t="n">
         <v>0.6542709596145645</v>
       </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -833,6 +901,9 @@
       <c r="E23" t="n">
         <v>0.4978916054522051</v>
       </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -850,6 +921,9 @@
       <c r="E24" t="n">
         <v>0.4457283672686786</v>
       </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -867,6 +941,9 @@
       <c r="E25" t="n">
         <v>0.5207292147691348</v>
       </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -884,6 +961,9 @@
       <c r="E26" t="n">
         <v>0.5908225706180381</v>
       </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -901,6 +981,9 @@
       <c r="E27" t="n">
         <v>0.4674930835092229</v>
       </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -918,6 +1001,9 @@
       <c r="E28" t="n">
         <v>0.5145228941791913</v>
       </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -935,6 +1021,9 @@
       <c r="E29" t="n">
         <v>0.404595795553695</v>
       </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -952,6 +1041,9 @@
       <c r="E30" t="n">
         <v>0.3656976909627385</v>
       </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -969,6 +1061,9 @@
       <c r="E31" t="n">
         <v>0.4256063024524911</v>
       </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -986,6 +1081,9 @@
       <c r="E32" t="n">
         <v>0.4387452411634727</v>
       </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1003,6 +1101,9 @@
       <c r="E33" t="n">
         <v>0.385967967685003</v>
       </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1020,6 +1121,9 @@
       <c r="E34" t="n">
         <v>0.2762811642870378</v>
       </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1037,6 +1141,9 @@
       <c r="E35" t="n">
         <v>0.5247354701590869</v>
       </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1054,6 +1161,9 @@
       <c r="E36" t="n">
         <v>0.686107984460813</v>
       </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1071,6 +1181,9 @@
       <c r="E37" t="n">
         <v>0.160796905963254</v>
       </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1088,6 +1201,9 @@
       <c r="E38" t="n">
         <v>0.3014096145531304</v>
       </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1105,6 +1221,9 @@
       <c r="E39" t="n">
         <v>0.457263480070356</v>
       </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1122,6 +1241,9 @@
       <c r="E40" t="n">
         <v>0.3064809305693594</v>
       </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1138,6 +1260,9 @@
       </c>
       <c r="E41" t="n">
         <v>0.4558186475617661</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
